--- a/NformTester/NformTester/Keywordscripts/600.30.30.30_AssignNavigationView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.30_AssignNavigationView.xlsx
@@ -4751,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.30.30_AssignNavigationView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.30_AssignNavigationView.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8039" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8042" uniqueCount="926">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4749,10 +4749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O123"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4845,31 +4845,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>825</v>
+        <v>924</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
-        <v>862</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>864</v>
-      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="15"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>875</v>
       </c>
@@ -4879,22 +4873,32 @@
       <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>865</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>825</v>
+      </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>864</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="15"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="11" t="s">
         <v>877</v>
       </c>
@@ -4904,31 +4908,21 @@
       <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>866</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>626</v>
-      </c>
+      <c r="D5" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
-        <v>867</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>869</v>
-      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>878</v>
       </c>
@@ -4938,42 +4932,46 @@
       <c r="C6" s="13">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="4"/>
+      <c r="D6" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="11" t="s">
         <v>810</v>
       </c>
       <c r="B7" s="16">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -4997,7 +4995,7 @@
         <v>830</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>2</v>
@@ -5018,19 +5016,19 @@
       <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>212</v>
+      <c r="D9" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>832</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -5052,17 +5050,15 @@
         <v>813</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>857</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -5083,12 +5079,14 @@
         <v>834</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>835</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>857</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -5114,11 +5112,9 @@
         <v>221</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>836</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -5141,17 +5137,15 @@
         <v>834</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>671</v>
+        <v>221</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -5173,13 +5167,17 @@
         <v>834</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -5201,7 +5199,7 @@
         <v>834</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>838</v>
+        <v>676</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>837</v>
@@ -5226,17 +5224,15 @@
         <v>813</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>222</v>
+        <v>838</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>840</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -5259,13 +5255,13 @@
         <v>839</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>835</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -5283,16 +5279,20 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>850</v>
+        <v>813</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+        <v>839</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>841</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -5309,20 +5309,18 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>827</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -5348,11 +5346,9 @@
         <v>679</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>855</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="6"/>
       <c r="K20" s="2"/>
@@ -5375,14 +5371,16 @@
         <v>839</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>345</v>
+        <v>679</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="H21" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -5397,13 +5395,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>917</v>
+        <v>813</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>838</v>
+        <v>345</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>837</v>
@@ -5421,16 +5419,16 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>813</v>
+        <v>917</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>598</v>
+        <v>842</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>222</v>
+        <v>838</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>2</v>
+        <v>837</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="2"/>
@@ -5445,7 +5443,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>917</v>
+        <v>813</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>598</v>
@@ -5454,11 +5452,9 @@
         <v>222</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>843</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -5471,18 +5467,20 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>813</v>
+        <v>917</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>598</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>568</v>
+        <v>222</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>835</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>843</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5504,11 +5502,9 @@
         <v>568</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>856</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -5521,16 +5517,20 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="F27" s="6">
-        <v>5</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+        <v>598</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>856</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -5543,17 +5543,15 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>837</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -5573,7 +5571,7 @@
         <v>598</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>17</v>
+        <v>599</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>837</v>
@@ -5594,10 +5592,10 @@
         <v>813</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>839</v>
+        <v>598</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>844</v>
+        <v>17</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>837</v>
@@ -5618,7 +5616,7 @@
         <v>813</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>844</v>
@@ -5639,15 +5637,17 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="F32" s="6">
-        <v>5</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>834</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>837</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -5661,17 +5661,15 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>837</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5680,16 +5678,22 @@
       <c r="M33" s="2"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="3:14" ht="15">
+    <row r="34" spans="3:14">
       <c r="C34" s="13">
         <v>33</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>837</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -5698,22 +5702,16 @@
       <c r="M34" s="2"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" ht="15">
       <c r="C35" s="13">
         <v>34</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D35" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -5733,7 +5731,7 @@
         <v>880</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>2</v>
@@ -5753,21 +5751,17 @@
       <c r="D37" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>667</v>
+      <c r="E37" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>882</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -5785,13 +5779,17 @@
         <v>883</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>349</v>
+        <v>667</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="2"/>
+        <v>884</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -5806,17 +5804,15 @@
         <v>813</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>915</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -5832,13 +5828,13 @@
         <v>813</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>915</v>
@@ -5861,17 +5857,15 @@
         <v>887</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>671</v>
+        <v>221</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -5889,13 +5883,17 @@
         <v>887</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -5913,7 +5911,7 @@
         <v>887</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>889</v>
@@ -5931,13 +5929,13 @@
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>910</v>
+        <v>813</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>887</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>349</v>
+        <v>677</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>889</v>
@@ -5955,20 +5953,18 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>813</v>
+        <v>910</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>891</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="H45" s="6"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -5987,13 +5983,13 @@
         <v>890</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>888</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -6013,12 +6009,14 @@
         <v>890</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="H47" s="6"/>
+        <v>888</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>892</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -6034,20 +6032,16 @@
         <v>813</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>671</v>
+        <v>17</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="6">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -6065,13 +6059,17 @@
         <v>887</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>893</v>
+        <v>671</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -6089,17 +6087,13 @@
         <v>887</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>671</v>
+        <v>893</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="6">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -6117,13 +6111,17 @@
         <v>887</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>893</v>
+        <v>671</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -6141,7 +6139,7 @@
         <v>887</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>889</v>
@@ -6162,10 +6160,10 @@
         <v>813</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>889</v>
@@ -6178,41 +6176,41 @@
       <c r="M53" s="2"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="3:15" ht="15">
+    <row r="54" spans="3:15">
       <c r="C54" s="13">
         <v>53</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>908</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="15"/>
+      <c r="D54" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="4"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="3:15">
+    <row r="55" spans="3:15" ht="15">
       <c r="C55" s="13">
         <v>54</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="D55" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -6233,7 +6231,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>2</v>
@@ -6252,13 +6250,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>285</v>
+        <v>918</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>2</v>
@@ -6280,17 +6278,15 @@
         <v>897</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>903</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -6310,7 +6306,7 @@
         <v>298</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>4</v>
@@ -6318,7 +6314,7 @@
       <c r="H59" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="I59" s="6"/>
+      <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -6337,7 +6333,7 @@
         <v>298</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>4</v>
@@ -6345,7 +6341,7 @@
       <c r="H60" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="I60" s="13"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
@@ -6364,13 +6360,13 @@
         <v>298</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -6385,13 +6381,13 @@
         <v>61</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>826</v>
+        <v>897</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>298</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>4</v>
@@ -6412,21 +6408,21 @@
         <v>62</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>897</v>
+        <v>826</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>298</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H63" t="s">
-        <v>904</v>
-      </c>
-      <c r="I63" s="6"/>
+      <c r="H63" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
@@ -6445,12 +6441,12 @@
         <v>298</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" t="s">
         <v>904</v>
       </c>
       <c r="I64" s="6"/>
@@ -6472,15 +6468,15 @@
         <v>298</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>899</v>
+        <v>302</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="I65" s="13"/>
+        <v>904</v>
+      </c>
+      <c r="I65" s="6"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -6499,13 +6495,13 @@
         <v>298</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>899</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
@@ -6526,13 +6522,13 @@
         <v>298</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>4</v>
+        <v>202</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>899</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
@@ -6542,7 +6538,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="3:15" ht="14.25">
+    <row r="68" spans="3:15">
       <c r="C68" s="13">
         <v>67</v>
       </c>
@@ -6553,15 +6549,15 @@
         <v>298</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="I68" s="26"/>
+        <v>902</v>
+      </c>
+      <c r="I68" s="13"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
@@ -6569,7 +6565,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="3:15">
+    <row r="69" spans="3:15" ht="14.25">
       <c r="C69" s="13">
         <v>68</v>
       </c>
@@ -6580,15 +6576,15 @@
         <v>298</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="I69" s="13"/>
+        <v>919</v>
+      </c>
+      <c r="I69" s="26"/>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -6607,12 +6603,14 @@
         <v>298</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H70" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>914</v>
+      </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
@@ -6632,10 +6630,10 @@
         <v>298</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>17</v>
+        <v>307</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
@@ -6651,19 +6649,19 @@
         <v>71</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>921</v>
+        <v>897</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
@@ -6671,18 +6669,24 @@
       <c r="N72" s="15"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="3:15" ht="15">
+    <row r="73" spans="3:15">
       <c r="C73" s="13">
         <v>72</v>
       </c>
-      <c r="D73" s="14" t="s">
-        <v>909</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+      <c r="D73" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
@@ -6690,22 +6694,16 @@
       <c r="N73" s="15"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="3:15">
+    <row r="74" spans="3:15" ht="15">
       <c r="C74" s="13">
         <v>73</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="D74" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -6726,7 +6724,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>2</v>
@@ -6745,13 +6743,13 @@
         <v>75</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>285</v>
+        <v>918</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>2</v>
@@ -6773,17 +6771,15 @@
         <v>897</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>905</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
@@ -6803,7 +6799,7 @@
         <v>298</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>4</v>
@@ -6811,7 +6807,7 @@
       <c r="H78" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="I78" s="6"/>
+      <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
@@ -6830,15 +6826,15 @@
         <v>298</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="I79" s="13"/>
+        <v>905</v>
+      </c>
+      <c r="I79" s="6"/>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -6857,13 +6853,13 @@
         <v>298</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -6878,13 +6874,13 @@
         <v>80</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>826</v>
+        <v>897</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>298</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>4</v>
@@ -6905,21 +6901,21 @@
         <v>81</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>897</v>
+        <v>826</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>298</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H82" t="s">
-        <v>907</v>
-      </c>
-      <c r="I82" s="6"/>
+      <c r="H82" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="I82" s="13"/>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -6938,12 +6934,12 @@
         <v>298</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H83" t="s">
         <v>907</v>
       </c>
       <c r="I83" s="6"/>
@@ -6965,15 +6961,15 @@
         <v>298</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>899</v>
+        <v>302</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="I84" s="13"/>
+        <v>907</v>
+      </c>
+      <c r="I84" s="6"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
@@ -6992,13 +6988,13 @@
         <v>298</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>899</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
@@ -7019,13 +7015,13 @@
         <v>298</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>4</v>
+        <v>202</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>899</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
@@ -7035,7 +7031,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="3:15" ht="14.25">
+    <row r="87" spans="3:15">
       <c r="C87" s="13">
         <v>86</v>
       </c>
@@ -7046,15 +7042,15 @@
         <v>298</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="I87" s="26"/>
+        <v>902</v>
+      </c>
+      <c r="I87" s="13"/>
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
@@ -7062,7 +7058,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="3:15">
+    <row r="88" spans="3:15" ht="14.25">
       <c r="C88" s="13">
         <v>87</v>
       </c>
@@ -7073,15 +7069,15 @@
         <v>298</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="I88" s="13"/>
+        <v>919</v>
+      </c>
+      <c r="I88" s="26"/>
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
@@ -7100,12 +7096,14 @@
         <v>298</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H89" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>920</v>
+      </c>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
@@ -7125,10 +7123,10 @@
         <v>298</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>17</v>
+        <v>307</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
@@ -7144,19 +7142,19 @@
         <v>90</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>921</v>
+        <v>897</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
@@ -7164,18 +7162,24 @@
       <c r="N91" s="15"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="3:15" ht="15">
+    <row r="92" spans="3:15">
       <c r="C92" s="13">
         <v>91</v>
       </c>
-      <c r="D92" s="14" t="s">
-        <v>911</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
+      <c r="D92" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
@@ -7183,23 +7187,17 @@
       <c r="N92" s="15"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="3:15">
+    <row r="93" spans="3:15" ht="15">
       <c r="C93" s="13">
         <v>92</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="6"/>
+      <c r="D93" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
@@ -7219,12 +7217,12 @@
         <v>19</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H94" s="13"/>
+      <c r="H94" s="6"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
       <c r="K94" s="13"/>
@@ -7238,24 +7236,20 @@
         <v>94</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>866</v>
+        <v>813</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>913</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
@@ -7267,20 +7261,24 @@
         <v>95</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>19</v>
+        <v>866</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
+        <v>825</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>913</v>
+      </c>
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
@@ -7298,56 +7296,56 @@
         <v>19</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
-      <c r="N97" s="27"/>
+      <c r="N97" s="15"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="3:15" ht="15">
+    <row r="98" spans="3:15">
       <c r="C98" s="13">
         <v>97</v>
       </c>
-      <c r="D98" s="14" t="s">
-        <v>912</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
+      <c r="D98" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
-      <c r="N98" s="15"/>
+      <c r="N98" s="27"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="3:15">
+    <row r="99" spans="3:15" ht="15">
       <c r="C99" s="13">
         <v>98</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H99" s="6"/>
+      <c r="D99" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
@@ -7367,12 +7365,12 @@
         <v>19</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H100" s="13"/>
+      <c r="H100" s="6"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
@@ -7386,24 +7384,20 @@
         <v>100</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>866</v>
+        <v>813</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="J101" s="13" t="s">
-        <v>913</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
@@ -7415,20 +7409,24 @@
         <v>101</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>19</v>
+        <v>866</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
+        <v>825</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>913</v>
+      </c>
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
@@ -7446,32 +7444,36 @@
         <v>19</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
-      <c r="N103" s="27"/>
+      <c r="N103" s="15"/>
       <c r="O103" s="25"/>
     </row>
-    <row r="104" spans="3:15" ht="15">
+    <row r="104" spans="3:15">
       <c r="C104" s="13">
         <v>103</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="13"/>
+      <c r="D104" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="13"/>
@@ -7481,29 +7483,25 @@
       <c r="N104" s="27"/>
       <c r="O104" s="25"/>
     </row>
-    <row r="105" spans="3:15">
+    <row r="105" spans="3:15" ht="15">
       <c r="C105" s="13">
         <v>104</v>
       </c>
-      <c r="D105" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="D105" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="F105" s="6"/>
+      <c r="G105" s="13"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="4"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="27"/>
     </row>
     <row r="106" spans="3:15">
       <c r="C106" s="13">
@@ -7513,21 +7511,21 @@
         <v>813</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>75</v>
+        <v>925</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="15"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="4"/>
       <c r="O106" s="25"/>
     </row>
     <row r="107" spans="3:15">
@@ -7535,24 +7533,20 @@
         <v>106</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>0</v>
+        <v>813</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13" t="s">
-        <v>862</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="J107" s="13" t="s">
-        <v>864</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
@@ -7563,43 +7557,47 @@
       <c r="C108" s="13">
         <v>107</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="4"/>
+      <c r="D108" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="15"/>
     </row>
     <row r="109" spans="3:15">
       <c r="C109" s="13">
         <v>108</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>813</v>
+      <c r="D109" s="7" t="s">
+        <v>848</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>830</v>
+        <v>620</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="6"/>
+        <v>627</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>849</v>
+      </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -7612,13 +7610,13 @@
         <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>830</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>82</v>
+        <v>831</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>2</v>
@@ -7638,18 +7636,16 @@
       <c r="D111" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>903</v>
-      </c>
+      <c r="E111" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="6"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -7667,13 +7663,15 @@
       <c r="E112" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="6"/>
+      <c r="F112" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>903</v>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -7691,15 +7689,13 @@
       <c r="E113" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="F113" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>905</v>
-      </c>
+      <c r="F113" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="6"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -7717,13 +7713,15 @@
       <c r="E114" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="6"/>
+      <c r="F114" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>905</v>
+      </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -7742,7 +7740,7 @@
         <v>847</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>845</v>
+        <v>289</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>2</v>
@@ -7760,13 +7758,13 @@
         <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>831</v>
+        <v>846</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>845</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>2</v>
@@ -7790,7 +7788,7 @@
         <v>830</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>2</v>
@@ -7810,18 +7808,16 @@
       <c r="D118" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>667</v>
+      <c r="E118" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>832</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>836</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" s="6"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -7840,12 +7836,14 @@
         <v>833</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>213</v>
+        <v>667</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>836</v>
+      </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
@@ -7864,14 +7862,12 @@
         <v>833</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>667</v>
+        <v>213</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>915</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" s="6"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -7890,12 +7886,14 @@
         <v>833</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>213</v>
+        <v>667</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>915</v>
+      </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
@@ -7914,7 +7912,7 @@
         <v>833</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>2</v>
@@ -7931,27 +7929,51 @@
       <c r="C123" s="13">
         <v>122</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" s="6"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="3:14">
+      <c r="C124" s="13">
+        <v>123</v>
+      </c>
+      <c r="D124" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E124" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="F123" s="13" t="s">
+      <c r="F124" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="4"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N115">
+  <conditionalFormatting sqref="N2:N116">
     <cfRule type="cellIs" dxfId="7" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7959,7 +7981,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N116:N119">
+  <conditionalFormatting sqref="N117:N120">
     <cfRule type="cellIs" dxfId="5" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7967,7 +7989,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N120:N121">
+  <conditionalFormatting sqref="N121:N122">
     <cfRule type="cellIs" dxfId="3" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7975,7 +7997,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N122:N123">
+  <conditionalFormatting sqref="N123:N124">
     <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7984,23 +8006,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D123 D55:D72 D3 D74:D91 D93:D97 D99:D103 D105:D107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D124 D56:D73 D3:D4 D75:D92 D94:D98 D100:D104 D106:D108">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B107 E2:E124">
+      <formula1>Forms</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G123">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F123">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B107 E2:E123">
-      <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I41" r:id="rId1" display="http://10.146.80.51/"/>
-    <hyperlink ref="H64" r:id="rId2" display="nform@testing.com"/>
-    <hyperlink ref="H83" r:id="rId3" display="nform@testing.com"/>
+    <hyperlink ref="I42" r:id="rId1" display="http://10.146.80.51/"/>
+    <hyperlink ref="H65" r:id="rId2" display="nform@testing.com"/>
+    <hyperlink ref="H84" r:id="rId3" display="nform@testing.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
